--- a/tests/test1/d20/N, 0.5.xlsx
+++ b/tests/test1/d20/N, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.1179738270162</v>
       </c>
       <c r="F2" t="n">
-        <v>17.69004367671464</v>
+        <v>17.69004367670953</v>
       </c>
       <c r="G2" t="n">
-        <v>93.98682599796854</v>
+        <v>93.98682599796737</v>
       </c>
       <c r="H2" t="n">
-        <v>10.67005208766992</v>
+        <v>10.67005208766584</v>
       </c>
       <c r="I2" t="n">
         <v>44.32671026784765</v>
@@ -547,16 +547,16 @@
         <v>21.33251976353872</v>
       </c>
       <c r="K2" t="n">
-        <v>43.95070679381357</v>
+        <v>43.95070679381264</v>
       </c>
       <c r="L2" t="n">
-        <v>19.69804640404124</v>
+        <v>19.69804640403468</v>
       </c>
       <c r="M2" t="n">
-        <v>0.384496529851101</v>
+        <v>0.3844965298513343</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5385892027950571</v>
+        <v>0.5385892027967134</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003013999999978978</v>
+        <v>0.0002421000000083495</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.1878273181684</v>
       </c>
       <c r="F3" t="n">
-        <v>16.77798927662767</v>
+        <v>16.77798927663416</v>
       </c>
       <c r="G3" t="n">
-        <v>69.92619498205617</v>
+        <v>69.92619498205826</v>
       </c>
       <c r="H3" t="n">
-        <v>10.36318597309739</v>
+        <v>10.36318597310286</v>
       </c>
       <c r="I3" t="n">
         <v>34.95824278912326</v>
@@ -599,16 +599,16 @@
         <v>25.60484930330038</v>
       </c>
       <c r="K3" t="n">
-        <v>34.38916098232475</v>
+        <v>34.3891609823259</v>
       </c>
       <c r="L3" t="n">
-        <v>22.33135966774987</v>
+        <v>22.33135966776024</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3871292513703153</v>
+        <v>0.387129251369981</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7587662038961059</v>
+        <v>0.7587662038939131</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002937000000002854</v>
+        <v>0.0002385999999887645</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.2083789237027319</v>
       </c>
       <c r="F4" t="n">
-        <v>18.44597208158495</v>
+        <v>18.44597208158462</v>
       </c>
       <c r="G4" t="n">
-        <v>102.3363432131543</v>
+        <v>102.3363432131554</v>
       </c>
       <c r="H4" t="n">
-        <v>2.452462788182626</v>
+        <v>2.452462788182531</v>
       </c>
       <c r="I4" t="n">
         <v>15.56656275893635</v>
@@ -651,16 +651,16 @@
         <v>18.86935545809921</v>
       </c>
       <c r="K4" t="n">
-        <v>15.13889777348413</v>
+        <v>15.13889777348403</v>
       </c>
       <c r="L4" t="n">
-        <v>15.74722361283891</v>
+        <v>15.74722361283852</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2988347111937311</v>
+        <v>0.2988347111937443</v>
       </c>
       <c r="N4" t="n">
-        <v>1.627425516416727</v>
+        <v>1.627425516416889</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003089000000073838</v>
+        <v>0.0001989999999807424</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.1056857632848</v>
       </c>
       <c r="F5" t="n">
-        <v>17.07562861032002</v>
+        <v>17.07562861032364</v>
       </c>
       <c r="G5" t="n">
-        <v>93.9360077130098</v>
+        <v>93.93600771301107</v>
       </c>
       <c r="H5" t="n">
-        <v>10.09908654363721</v>
+        <v>10.09908654364004</v>
       </c>
       <c r="I5" t="n">
         <v>44.23827129596256</v>
@@ -703,16 +703,16 @@
         <v>21.20345840520746</v>
       </c>
       <c r="K5" t="n">
-        <v>43.64196234496266</v>
+        <v>43.64196234496339</v>
       </c>
       <c r="L5" t="n">
-        <v>18.82816880109583</v>
+        <v>18.82816880110038</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4569037535538301</v>
+        <v>0.4569037535536281</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7700950860734228</v>
+        <v>0.7700950860722322</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000298299999997198</v>
+        <v>0.0001916999999878044</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9747191464285</v>
       </c>
       <c r="F6" t="n">
-        <v>19.02820235961624</v>
+        <v>19.02820235961617</v>
       </c>
       <c r="G6" t="n">
-        <v>175.2576978815268</v>
+        <v>175.2576978815269</v>
       </c>
       <c r="H6" t="n">
-        <v>9.184999349060162</v>
+        <v>9.18499934906016</v>
       </c>
       <c r="I6" t="n">
         <v>21.56436866719725</v>
@@ -755,16 +755,16 @@
         <v>6.41396481681925</v>
       </c>
       <c r="K6" t="n">
-        <v>20.90650921196345</v>
+        <v>20.90650921196342</v>
       </c>
       <c r="L6" t="n">
-        <v>5.810084375201438</v>
+        <v>5.81008437520136</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2615828204653774</v>
+        <v>0.261582820465381</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4509602058127051</v>
+        <v>0.4509602058127365</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002883000000082347</v>
+        <v>0.0002198999999905027</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.7793862565575</v>
       </c>
       <c r="F7" t="n">
-        <v>17.04709638821558</v>
+        <v>17.04709638821596</v>
       </c>
       <c r="G7" t="n">
-        <v>38.26724043202083</v>
+        <v>38.26724043202106</v>
       </c>
       <c r="H7" t="n">
-        <v>11.35777330100574</v>
+        <v>11.35777330100606</v>
       </c>
       <c r="I7" t="n">
         <v>21.19065735311351</v>
@@ -807,16 +807,16 @@
         <v>31.91172483743855</v>
       </c>
       <c r="K7" t="n">
-        <v>20.79869134005793</v>
+        <v>20.79869134005799</v>
       </c>
       <c r="L7" t="n">
-        <v>26.88329246271625</v>
+        <v>26.88329246271695</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2966624608470904</v>
+        <v>0.2966624608470763</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7916011679292786</v>
+        <v>0.7916011679291562</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005542999999903486</v>
+        <v>0.0002144000000043889</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.1558918367437626</v>
       </c>
       <c r="F8" t="n">
-        <v>18.58945887045872</v>
+        <v>18.58945887045898</v>
       </c>
       <c r="G8" t="n">
-        <v>165.4457315341825</v>
+        <v>165.4457315341815</v>
       </c>
       <c r="H8" t="n">
-        <v>6.790004371306343</v>
+        <v>6.790004371306328</v>
       </c>
       <c r="I8" t="n">
         <v>22.57367986124408</v>
@@ -859,16 +859,16 @@
         <v>10.25939500470955</v>
       </c>
       <c r="K8" t="n">
-        <v>22.00881036472316</v>
+        <v>22.00881036472325</v>
       </c>
       <c r="L8" t="n">
-        <v>8.722103878469076</v>
+        <v>8.722103878469415</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2583364392497465</v>
+        <v>0.2583364392497342</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5785856516519827</v>
+        <v>0.5785856516518784</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.0002459000000101241</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.1547371480999</v>
       </c>
       <c r="F9" t="n">
-        <v>14.9435921838331</v>
+        <v>14.94359218383345</v>
       </c>
       <c r="G9" t="n">
-        <v>10.63889288969409</v>
+        <v>10.63889288969429</v>
       </c>
       <c r="H9" t="n">
-        <v>13.70413869598229</v>
+        <v>13.70413869598297</v>
       </c>
       <c r="I9" t="n">
         <v>8.395584447363737</v>
@@ -911,16 +911,16 @@
         <v>32.13470811956061</v>
       </c>
       <c r="K9" t="n">
-        <v>7.965165505990225</v>
+        <v>7.965165505990313</v>
       </c>
       <c r="L9" t="n">
-        <v>28.76539942901215</v>
+        <v>28.7653994290133</v>
       </c>
       <c r="M9" t="n">
-        <v>0.374922614103266</v>
+        <v>0.3749226141032397</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6318601858235013</v>
+        <v>0.6318601858235517</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003899999999958936</v>
+        <v>0.0002528999999924508</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9543976416901</v>
       </c>
       <c r="F10" t="n">
-        <v>17.18391187048932</v>
+        <v>17.1839118705111</v>
       </c>
       <c r="G10" t="n">
-        <v>158.2974577840413</v>
+        <v>158.2974577840304</v>
       </c>
       <c r="H10" t="n">
-        <v>12.12832978287204</v>
+        <v>12.12832978289135</v>
       </c>
       <c r="I10" t="n">
         <v>81.3927713553782</v>
@@ -963,16 +963,16 @@
         <v>8.056033186416919</v>
       </c>
       <c r="K10" t="n">
-        <v>80.91823262418096</v>
+        <v>80.91823262418518</v>
       </c>
       <c r="L10" t="n">
-        <v>6.621678811540647</v>
+        <v>6.621678811551867</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3361148427558057</v>
+        <v>0.3361148427547746</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8688092627966464</v>
+        <v>0.8688092627896977</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005469999999974107</v>
+        <v>0.0002022000000181379</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9994457226439</v>
       </c>
       <c r="F11" t="n">
-        <v>18.51369406571256</v>
+        <v>18.51369406571262</v>
       </c>
       <c r="G11" t="n">
-        <v>359.2474458372969</v>
+        <v>359.2474458372971</v>
       </c>
       <c r="H11" t="n">
-        <v>6.312311676990509</v>
+        <v>6.31231167699057</v>
       </c>
       <c r="I11" t="n">
         <v>3.091364150809967</v>
@@ -1015,16 +1015,16 @@
         <v>28.24598523429134</v>
       </c>
       <c r="K11" t="n">
-        <v>2.612068804442403</v>
+        <v>2.612068804442416</v>
       </c>
       <c r="L11" t="n">
-        <v>23.49586460639577</v>
+        <v>23.49586460639591</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3004134167489391</v>
+        <v>0.3004134167489362</v>
       </c>
       <c r="N11" t="n">
-        <v>1.21655607980513</v>
+        <v>1.216556079805102</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0004988999999966381</v>
+        <v>0.0001940999999874293</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.3342067479352</v>
       </c>
       <c r="F12" t="n">
-        <v>18.21410162163968</v>
+        <v>18.21410162163984</v>
       </c>
       <c r="G12" t="n">
-        <v>100.9217795002055</v>
+        <v>100.9217795002029</v>
       </c>
       <c r="H12" t="n">
-        <v>2.444584488533448</v>
+        <v>2.4445844885335</v>
       </c>
       <c r="I12" t="n">
         <v>14.50009772114043</v>
@@ -1067,16 +1067,16 @@
         <v>14.92377511516745</v>
       </c>
       <c r="K12" t="n">
-        <v>14.31911732878557</v>
+        <v>14.31911732878562</v>
       </c>
       <c r="L12" t="n">
-        <v>15.52295014232549</v>
+        <v>15.52295014232578</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2904100477708147</v>
+        <v>0.2904100477708078</v>
       </c>
       <c r="N12" t="n">
-        <v>1.679043706224562</v>
+        <v>1.679043706224605</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003270000000128448</v>
+        <v>0.0001861000000076274</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.1252726293474</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89056698727373</v>
+        <v>15.89056698727343</v>
       </c>
       <c r="G13" t="n">
-        <v>16.40188807991994</v>
+        <v>16.40188807991922</v>
       </c>
       <c r="H13" t="n">
-        <v>6.475649451927164</v>
+        <v>6.475649451927332</v>
       </c>
       <c r="I13" t="n">
         <v>8.947316066673613</v>
@@ -1119,16 +1119,16 @@
         <v>20.91271227320319</v>
       </c>
       <c r="K13" t="n">
-        <v>8.566146960240644</v>
+        <v>8.56614696024058</v>
       </c>
       <c r="L13" t="n">
-        <v>20.96072366748133</v>
+        <v>20.96072366748125</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3707976525221178</v>
+        <v>0.370797652522125</v>
       </c>
       <c r="N13" t="n">
-        <v>3.006658239595946</v>
+        <v>3.006658239596103</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003245000000049458</v>
+        <v>0.0002455000000054497</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.763507084255</v>
       </c>
       <c r="F14" t="n">
-        <v>17.20236958944675</v>
+        <v>17.20236958944664</v>
       </c>
       <c r="G14" t="n">
-        <v>25.45584271981814</v>
+        <v>25.45584271981793</v>
       </c>
       <c r="H14" t="n">
-        <v>10.75364035395195</v>
+        <v>10.753640353952</v>
       </c>
       <c r="I14" t="n">
         <v>14.58896536332175</v>
@@ -1171,16 +1171,16 @@
         <v>31.00025388231675</v>
       </c>
       <c r="K14" t="n">
-        <v>14.21406792204645</v>
+        <v>14.21406792204642</v>
       </c>
       <c r="L14" t="n">
-        <v>27.0660565947045</v>
+        <v>27.06605659470446</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3156733603408974</v>
+        <v>0.3156733603408983</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5997174711026996</v>
+        <v>0.5997174711027047</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003074999999910233</v>
+        <v>0.0001955000000180007</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.3561953310252952</v>
       </c>
       <c r="F15" t="n">
-        <v>18.31099474117475</v>
+        <v>18.31099474117367</v>
       </c>
       <c r="G15" t="n">
-        <v>149.8267084209046</v>
+        <v>149.8267084209068</v>
       </c>
       <c r="H15" t="n">
-        <v>5.519407317176539</v>
+        <v>5.519407317176142</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1223,16 +1223,16 @@
         <v>13.2842839938443</v>
       </c>
       <c r="K15" t="n">
-        <v>24.83421758163694</v>
+        <v>24.83421758163654</v>
       </c>
       <c r="L15" t="n">
-        <v>10.98412104380933</v>
+        <v>10.98412104380842</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2578316127415008</v>
+        <v>0.2578316127415443</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8012619142348669</v>
+        <v>0.8012619142353035</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0002917000000053349</v>
+        <v>0.0001958999999942534</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.2243304443735</v>
       </c>
       <c r="F16" t="n">
-        <v>16.97168033106699</v>
+        <v>16.97168033106466</v>
       </c>
       <c r="G16" t="n">
-        <v>87.49631904586749</v>
+        <v>87.49631904586668</v>
       </c>
       <c r="H16" t="n">
-        <v>10.80099372260628</v>
+        <v>10.80099372260434</v>
       </c>
       <c r="I16" t="n">
         <v>43.51026779230099</v>
@@ -1275,16 +1275,16 @@
         <v>23.0795266139911</v>
       </c>
       <c r="K16" t="n">
-        <v>42.95156180947188</v>
+        <v>42.95156180947144</v>
       </c>
       <c r="L16" t="n">
-        <v>20.38439970020773</v>
+        <v>20.38439970020452</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4251047446264888</v>
+        <v>0.4251047446266111</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7603786344534158</v>
+        <v>0.7603786344541761</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003195000000033588</v>
+        <v>0.0002051999999821419</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.156164240771768</v>
       </c>
       <c r="F17" t="n">
-        <v>18.56396133090289</v>
+        <v>18.56396133090326</v>
       </c>
       <c r="G17" t="n">
-        <v>159.5513729058496</v>
+        <v>159.5513729058493</v>
       </c>
       <c r="H17" t="n">
-        <v>5.053307860439276</v>
+        <v>5.053307860439432</v>
       </c>
       <c r="I17" t="n">
         <v>18.56949776560077</v>
@@ -1327,16 +1327,16 @@
         <v>12.54421959985167</v>
       </c>
       <c r="K17" t="n">
-        <v>18.02061681236699</v>
+        <v>18.02061681236716</v>
       </c>
       <c r="L17" t="n">
-        <v>10.79523392720659</v>
+        <v>10.79523392720682</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2814915244958638</v>
+        <v>0.2814915244958482</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5840903964502914</v>
+        <v>0.5840903964501355</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.000312300000004484</v>
+        <v>0.0001857000000029529</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9360256394331</v>
       </c>
       <c r="F18" t="n">
-        <v>17.38018443396179</v>
+        <v>17.38018443396142</v>
       </c>
       <c r="G18" t="n">
-        <v>39.02316361544878</v>
+        <v>39.02316361544968</v>
       </c>
       <c r="H18" t="n">
-        <v>7.574579336580443</v>
+        <v>7.574579336579833</v>
       </c>
       <c r="I18" t="n">
         <v>17.88767679762028</v>
@@ -1379,16 +1379,16 @@
         <v>27.2033509828832</v>
       </c>
       <c r="K18" t="n">
-        <v>17.48232306030159</v>
+        <v>17.48232306030153</v>
       </c>
       <c r="L18" t="n">
-        <v>22.88230339387558</v>
+        <v>22.88230339387451</v>
       </c>
       <c r="M18" t="n">
-        <v>0.242424277465307</v>
+        <v>0.2424242774653257</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8542924539214839</v>
+        <v>0.8542924539217054</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003580000000056316</v>
+        <v>0.0002324999999814281</v>
       </c>
     </row>
     <row r="19">
@@ -1416,10 +1416,10 @@
         <v>359.8618670549893</v>
       </c>
       <c r="F19" t="n">
-        <v>17.20259867408132</v>
+        <v>17.2025986740808</v>
       </c>
       <c r="G19" t="n">
-        <v>50.76077210323438</v>
+        <v>50.76077210323263</v>
       </c>
       <c r="H19" t="n">
         <v>7.865623926399638</v>
@@ -1431,16 +1431,16 @@
         <v>26.18982127859822</v>
       </c>
       <c r="K19" t="n">
-        <v>22.32018166945559</v>
+        <v>22.32018166945545</v>
       </c>
       <c r="L19" t="n">
-        <v>22.22169684718538</v>
+        <v>22.22169684718504</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3032458339812202</v>
+        <v>0.3032458339812292</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8320661543815597</v>
+        <v>0.8320661543816534</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003176000000024715</v>
+        <v>0.0001857000000029529</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9602857780969</v>
       </c>
       <c r="F20" t="n">
-        <v>17.72878073503674</v>
+        <v>17.72878073504086</v>
       </c>
       <c r="G20" t="n">
-        <v>118.0605750489357</v>
+        <v>118.0605750489322</v>
       </c>
       <c r="H20" t="n">
-        <v>7.675292866220311</v>
+        <v>7.675292866222902</v>
       </c>
       <c r="I20" t="n">
         <v>41.12890466717757</v>
@@ -1483,16 +1483,16 @@
         <v>16.50686888128499</v>
       </c>
       <c r="K20" t="n">
-        <v>40.74194443760266</v>
+        <v>40.74194443760352</v>
       </c>
       <c r="L20" t="n">
-        <v>14.22784209322984</v>
+        <v>14.2278420932342</v>
       </c>
       <c r="M20" t="n">
-        <v>0.296998702447558</v>
+        <v>0.2969987024473961</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7350438874227777</v>
+        <v>0.7350438874213232</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.000332799999995359</v>
+        <v>0.0002377999999794156</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.8894983686589</v>
       </c>
       <c r="F21" t="n">
-        <v>17.05946575216989</v>
+        <v>17.05946575217015</v>
       </c>
       <c r="G21" t="n">
-        <v>15.77243799176012</v>
+        <v>15.7724379917604</v>
       </c>
       <c r="H21" t="n">
-        <v>10.18981937362539</v>
+        <v>10.18981937362546</v>
       </c>
       <c r="I21" t="n">
         <v>10.08818411982853</v>
@@ -1535,16 +1535,16 @@
         <v>31.75837563530379</v>
       </c>
       <c r="K21" t="n">
-        <v>9.659724888146219</v>
+        <v>9.65972488814627</v>
       </c>
       <c r="L21" t="n">
-        <v>26.58743040764728</v>
+        <v>26.58743040764761</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2915565820362542</v>
+        <v>0.2915565820362472</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8238112502578965</v>
+        <v>0.8238112502578427</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.000185000000016089</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.5580534436913</v>
       </c>
       <c r="F22" t="n">
-        <v>17.01499128368545</v>
+        <v>17.01499128368605</v>
       </c>
       <c r="G22" t="n">
         <v>103.833970298041</v>
       </c>
       <c r="H22" t="n">
-        <v>11.50863490893397</v>
+        <v>11.50863490893452</v>
       </c>
       <c r="I22" t="n">
         <v>52.99086548673188</v>
@@ -1587,16 +1587,16 @@
         <v>21.3741511885343</v>
       </c>
       <c r="K22" t="n">
-        <v>52.47791335106475</v>
+        <v>52.47791335106486</v>
       </c>
       <c r="L22" t="n">
-        <v>18.21792070920949</v>
+        <v>18.21792070921025</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3231988944481596</v>
+        <v>0.3231988944481349</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8360362045238496</v>
+        <v>0.836036204523662</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003050999999913984</v>
+        <v>0.0001833999999973912</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.02598212475276744</v>
       </c>
       <c r="F23" t="n">
-        <v>18.8537392658756</v>
+        <v>18.85373926587533</v>
       </c>
       <c r="G23" t="n">
-        <v>7.607559390007173</v>
+        <v>7.607559390006652</v>
       </c>
       <c r="H23" t="n">
-        <v>4.703702951618194</v>
+        <v>4.703702951618617</v>
       </c>
       <c r="I23" t="n">
         <v>5.36750693504376</v>
@@ -1639,16 +1639,16 @@
         <v>25.16639260177412</v>
       </c>
       <c r="K23" t="n">
-        <v>5.042166534933033</v>
+        <v>5.04216653493302</v>
       </c>
       <c r="L23" t="n">
-        <v>21.91694877679404</v>
+        <v>21.91694877679429</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2891245877952964</v>
+        <v>0.2891245877952959</v>
       </c>
       <c r="N23" t="n">
-        <v>1.007908185452444</v>
+        <v>1.007908185452285</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002877000000012231</v>
+        <v>0.0002709000000038486</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.04597495993259098</v>
       </c>
       <c r="F24" t="n">
-        <v>17.7372618184534</v>
+        <v>17.73726181845286</v>
       </c>
       <c r="G24" t="n">
-        <v>38.80599917279575</v>
+        <v>38.80599917279599</v>
       </c>
       <c r="H24" t="n">
-        <v>6.518454110730926</v>
+        <v>6.518454110730446</v>
       </c>
       <c r="I24" t="n">
         <v>16.42485345887366</v>
@@ -1691,16 +1691,16 @@
         <v>26.83511193928066</v>
       </c>
       <c r="K24" t="n">
-        <v>16.00744737560247</v>
+        <v>16.00744737560235</v>
       </c>
       <c r="L24" t="n">
-        <v>22.07230973471299</v>
+        <v>22.07230973471193</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3251655620067018</v>
+        <v>0.3251655620067278</v>
       </c>
       <c r="N24" t="n">
-        <v>1.076220360945826</v>
+        <v>1.076220360946063</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002844999999922493</v>
+        <v>0.0001902999999856547</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.6665059718233</v>
       </c>
       <c r="F25" t="n">
-        <v>16.81388976942477</v>
+        <v>16.8138897694216</v>
       </c>
       <c r="G25" t="n">
-        <v>91.30743293195401</v>
+        <v>91.30743293195427</v>
       </c>
       <c r="H25" t="n">
-        <v>11.8508009356644</v>
+        <v>11.85080093566131</v>
       </c>
       <c r="I25" t="n">
         <v>48.17804819258614</v>
@@ -1743,16 +1743,16 @@
         <v>24.6655445066675</v>
       </c>
       <c r="K25" t="n">
-        <v>47.78195814738552</v>
+        <v>47.78195814738512</v>
       </c>
       <c r="L25" t="n">
-        <v>20.64541017028913</v>
+        <v>20.64541017028428</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2960864140276606</v>
+        <v>0.2960864140277927</v>
       </c>
       <c r="N25" t="n">
-        <v>0.853168595083114</v>
+        <v>0.8531685950840722</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0006771999999983791</v>
+        <v>0.0002271999999834406</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.3353939136754</v>
       </c>
       <c r="F26" t="n">
-        <v>20.07205893607369</v>
+        <v>20.07205893606941</v>
       </c>
       <c r="G26" t="n">
-        <v>169.1143347710401</v>
+        <v>169.1143347710433</v>
       </c>
       <c r="H26" t="n">
-        <v>10.89967141712042</v>
+        <v>10.89967141711781</v>
       </c>
       <c r="I26" t="n">
         <v>37.05770755775833</v>
@@ -1795,16 +1795,16 @@
         <v>4.784771626472109</v>
       </c>
       <c r="K26" t="n">
-        <v>36.47125306451863</v>
+        <v>36.47125306451645</v>
       </c>
       <c r="L26" t="n">
-        <v>5.73284232650221</v>
+        <v>5.732842326500381</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3103690305720303</v>
+        <v>0.3103690305722361</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6775648697423632</v>
+        <v>0.6775648697427668</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003079999999897609</v>
+        <v>0.0001956999999777054</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.8858634551669</v>
       </c>
       <c r="F27" t="n">
-        <v>18.77062432634434</v>
+        <v>18.77062432634639</v>
       </c>
       <c r="G27" t="n">
-        <v>156.9786186894479</v>
+        <v>156.9786186894465</v>
       </c>
       <c r="H27" t="n">
-        <v>9.22061324657407</v>
+        <v>9.220613246575358</v>
       </c>
       <c r="I27" t="n">
         <v>42.87464225195476</v>
@@ -1847,16 +1847,16 @@
         <v>8.709475492388034</v>
       </c>
       <c r="K27" t="n">
-        <v>42.44290699525152</v>
+        <v>42.44290699525241</v>
       </c>
       <c r="L27" t="n">
-        <v>8.090919715117337</v>
+        <v>8.090919715118444</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3047893146724561</v>
+        <v>0.30478931467236</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4271297921347306</v>
+        <v>0.4271297921339428</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.000411700000000792</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.90200339417</v>
       </c>
       <c r="F28" t="n">
-        <v>17.51027292566497</v>
+        <v>17.51027292566353</v>
       </c>
       <c r="G28" t="n">
-        <v>54.51732289811329</v>
+        <v>54.51732289811213</v>
       </c>
       <c r="H28" t="n">
-        <v>7.685803789333801</v>
+        <v>7.685803789332955</v>
       </c>
       <c r="I28" t="n">
         <v>23.50223078865571</v>
@@ -1899,16 +1899,16 @@
         <v>25.81162416209323</v>
       </c>
       <c r="K28" t="n">
-        <v>23.13453325985732</v>
+        <v>23.134533259857</v>
       </c>
       <c r="L28" t="n">
-        <v>22.01799754407175</v>
+        <v>22.01799754406965</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2843989521465716</v>
+        <v>0.2843989521466209</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7785174889013022</v>
+        <v>0.778517488901781</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.001948200000001066</v>
+        <v>0.0002368000000103621</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.3571972923839</v>
       </c>
       <c r="F29" t="n">
-        <v>16.76553965650237</v>
+        <v>16.765539656496</v>
       </c>
       <c r="G29" t="n">
-        <v>72.98380520184227</v>
+        <v>72.98380520183896</v>
       </c>
       <c r="H29" t="n">
-        <v>11.01141960069644</v>
+        <v>11.01141960069112</v>
       </c>
       <c r="I29" t="n">
         <v>37.54462213366881</v>
@@ -1951,16 +1951,16 @@
         <v>26.39565896564254</v>
       </c>
       <c r="K29" t="n">
-        <v>37.0857491567651</v>
+        <v>37.08574915676392</v>
       </c>
       <c r="L29" t="n">
-        <v>22.58272566257255</v>
+        <v>22.58272566256278</v>
       </c>
       <c r="M29" t="n">
-        <v>0.365150596834813</v>
+        <v>0.3651505968351071</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7917487258957729</v>
+        <v>0.7917487258978123</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.000186600000006365</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.776833811065</v>
       </c>
       <c r="F30" t="n">
-        <v>18.30585146286806</v>
+        <v>18.30585146286918</v>
       </c>
       <c r="G30" t="n">
-        <v>130.3029205943053</v>
+        <v>130.3029205943037</v>
       </c>
       <c r="H30" t="n">
-        <v>8.700666334327414</v>
+        <v>8.700666334328131</v>
       </c>
       <c r="I30" t="n">
         <v>45.79205508530252</v>
@@ -2003,16 +2003,16 @@
         <v>13.89068101942091</v>
       </c>
       <c r="K30" t="n">
-        <v>45.40027185125066</v>
+        <v>45.40027185125079</v>
       </c>
       <c r="L30" t="n">
-        <v>12.72654832478887</v>
+        <v>12.72654832479002</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2782476215390332</v>
+        <v>0.278247621538994</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5262063064317645</v>
+        <v>0.5262063064314537</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000293400000003885</v>
+        <v>0.0001849999999876673</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.2087410631522755</v>
       </c>
       <c r="F31" t="n">
-        <v>18.51478818817378</v>
+        <v>18.5147881881741</v>
       </c>
       <c r="G31" t="n">
-        <v>161.037646149519</v>
+        <v>161.0376461495179</v>
       </c>
       <c r="H31" t="n">
-        <v>6.159366096015058</v>
+        <v>6.159366096015113</v>
       </c>
       <c r="I31" t="n">
         <v>22.82783905909671</v>
@@ -2055,16 +2055,16 @@
         <v>11.25757446175414</v>
       </c>
       <c r="K31" t="n">
-        <v>22.22376358225749</v>
+        <v>22.22376358225763</v>
       </c>
       <c r="L31" t="n">
-        <v>9.6230273721789</v>
+        <v>9.623027372179237</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2938011130831198</v>
+        <v>0.2938011130831018</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6331035857634072</v>
+        <v>0.6331035857632735</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.000183999999990192</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.6320263323882001</v>
       </c>
       <c r="F32" t="n">
-        <v>16.76757456124243</v>
+        <v>16.76757456123959</v>
       </c>
       <c r="G32" t="n">
-        <v>127.0133015550692</v>
+        <v>127.0133015550718</v>
       </c>
       <c r="H32" t="n">
-        <v>5.68451599908703</v>
+        <v>5.68451599908556</v>
       </c>
       <c r="I32" t="n">
         <v>34.85112742421163</v>
@@ -2107,16 +2107,16 @@
         <v>16.34058174572703</v>
       </c>
       <c r="K32" t="n">
-        <v>34.10858254452972</v>
+        <v>34.10858254452874</v>
       </c>
       <c r="L32" t="n">
-        <v>12.13041267681147</v>
+        <v>12.13041267680888</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3251043176231105</v>
+        <v>0.3251043176232551</v>
       </c>
       <c r="N32" t="n">
-        <v>1.51417180397197</v>
+        <v>1.514171803973025</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.000469199999997727</v>
+        <v>0.0004149000000097658</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.2073786071257917</v>
       </c>
       <c r="F33" t="n">
-        <v>16.24518711779718</v>
+        <v>16.24518711779526</v>
       </c>
       <c r="G33" t="n">
-        <v>50.15347372572331</v>
+        <v>50.15347372572194</v>
       </c>
       <c r="H33" t="n">
-        <v>10.82815639997346</v>
+        <v>10.82815639997189</v>
       </c>
       <c r="I33" t="n">
         <v>27.6517349691609</v>
@@ -2159,16 +2159,16 @@
         <v>31.85401002845563</v>
       </c>
       <c r="K33" t="n">
-        <v>27.03965856170658</v>
+        <v>27.03965856170622</v>
       </c>
       <c r="L33" t="n">
-        <v>24.648553884271</v>
+        <v>24.64855388426768</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3151767382476253</v>
+        <v>0.315176738247702</v>
       </c>
       <c r="N33" t="n">
-        <v>1.196153101140521</v>
+        <v>1.196153101141093</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003329999999976962</v>
+        <v>0.0002329000000145243</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1744472254947149</v>
       </c>
       <c r="F34" t="n">
-        <v>18.10802988816197</v>
+        <v>18.10802988816006</v>
       </c>
       <c r="G34" t="n">
-        <v>159.5995911633352</v>
+        <v>159.5995911633379</v>
       </c>
       <c r="H34" t="n">
-        <v>6.850762061578183</v>
+        <v>6.850762061577345</v>
       </c>
       <c r="I34" t="n">
         <v>28.38669219472616</v>
@@ -2211,16 +2211,16 @@
         <v>10.55219493556909</v>
       </c>
       <c r="K34" t="n">
-        <v>27.71920658467026</v>
+        <v>27.71920658466938</v>
       </c>
       <c r="L34" t="n">
-        <v>8.795703562994074</v>
+        <v>8.795703562992758</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2973510295355227</v>
+        <v>0.2973510295356265</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7773076116443456</v>
+        <v>0.7773076116451235</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0004275999999947544</v>
+        <v>0.0001888000000178636</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.1594267525540688</v>
       </c>
       <c r="F35" t="n">
-        <v>17.64050292755665</v>
+        <v>17.64050292755688</v>
       </c>
       <c r="G35" t="n">
-        <v>46.40841430250275</v>
+        <v>46.40841430250232</v>
       </c>
       <c r="H35" t="n">
-        <v>6.21182730737637</v>
+        <v>6.211827307376613</v>
       </c>
       <c r="I35" t="n">
         <v>18.6090803159811</v>
@@ -2263,16 +2263,16 @@
         <v>25.8983258433767</v>
       </c>
       <c r="K35" t="n">
-        <v>18.17147663806042</v>
+        <v>18.17147663806048</v>
       </c>
       <c r="L35" t="n">
-        <v>21.22224439842757</v>
+        <v>21.22224439842808</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2758624728212054</v>
+        <v>0.2758624728211941</v>
       </c>
       <c r="N35" t="n">
-        <v>1.103418252546165</v>
+        <v>1.103418252546043</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0001888000000178636</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.8780824496862</v>
       </c>
       <c r="F36" t="n">
-        <v>17.70474177415795</v>
+        <v>17.70474177415821</v>
       </c>
       <c r="G36" t="n">
-        <v>5.774491134568703</v>
+        <v>5.77449113456892</v>
       </c>
       <c r="H36" t="n">
-        <v>10.02722801488891</v>
+        <v>10.02722801488902</v>
       </c>
       <c r="I36" t="n">
         <v>5.272501281412788</v>
@@ -2315,16 +2315,16 @@
         <v>32.24479883815602</v>
       </c>
       <c r="K36" t="n">
-        <v>4.94954297289171</v>
+        <v>4.94954297289176</v>
       </c>
       <c r="L36" t="n">
-        <v>27.16123675029773</v>
+        <v>27.16123675029812</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2791647010870332</v>
+        <v>0.2791647010870256</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8447004165821561</v>
+        <v>0.8447004165821015</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002903000000031852</v>
+        <v>0.0001835000000198761</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.9448683550439242</v>
       </c>
       <c r="F37" t="n">
-        <v>16.69535180516512</v>
+        <v>16.6953518051651</v>
       </c>
       <c r="G37" t="n">
-        <v>106.4529609589787</v>
+        <v>106.4529609589789</v>
       </c>
       <c r="H37" t="n">
-        <v>4.044269633063835</v>
+        <v>4.044269633063823</v>
       </c>
       <c r="I37" t="n">
         <v>26.3682126287348</v>
@@ -2370,13 +2370,13 @@
         <v>25.65244598932924</v>
       </c>
       <c r="L37" t="n">
-        <v>14.09103850738528</v>
+        <v>14.09103850738524</v>
       </c>
       <c r="M37" t="n">
-        <v>0.408954786098716</v>
+        <v>0.4089547860987175</v>
       </c>
       <c r="N37" t="n">
-        <v>2.295590885460495</v>
+        <v>2.295590885460507</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.00029750000000206</v>
+        <v>0.0003610999999921205</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.6617933671228</v>
       </c>
       <c r="F38" t="n">
-        <v>17.96721261624798</v>
+        <v>17.96721261625232</v>
       </c>
       <c r="G38" t="n">
-        <v>129.7146851824347</v>
+        <v>129.7146851824334</v>
       </c>
       <c r="H38" t="n">
-        <v>8.947841325214721</v>
+        <v>8.94784132521767</v>
       </c>
       <c r="I38" t="n">
         <v>48.16347976442483</v>
@@ -2419,16 +2419,16 @@
         <v>13.96841538265422</v>
       </c>
       <c r="K38" t="n">
-        <v>47.68143826176031</v>
+        <v>47.68143826176144</v>
       </c>
       <c r="L38" t="n">
-        <v>12.60999904393988</v>
+        <v>12.60999904394352</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3415286684502157</v>
+        <v>0.3415286684500317</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6290660993066969</v>
+        <v>0.6290660993052913</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003108000000082711</v>
+        <v>0.0002531000000089989</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.02723180616874827</v>
       </c>
       <c r="F39" t="n">
-        <v>18.96875671600661</v>
+        <v>18.9687567160068</v>
       </c>
       <c r="G39" t="n">
-        <v>171.45885338676</v>
+        <v>171.4588533867592</v>
       </c>
       <c r="H39" t="n">
-        <v>8.179570389818364</v>
+        <v>8.179570389818291</v>
       </c>
       <c r="I39" t="n">
         <v>22.15312424526588</v>
@@ -2471,16 +2471,16 @@
         <v>7.834932884569842</v>
       </c>
       <c r="K39" t="n">
-        <v>21.64482869551466</v>
+        <v>21.64482869551473</v>
       </c>
       <c r="L39" t="n">
-        <v>7.149920582851957</v>
+        <v>7.149920582852282</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2741291796792076</v>
+        <v>0.274129179679196</v>
       </c>
       <c r="N39" t="n">
-        <v>0.4226934754891482</v>
+        <v>0.4226934754890662</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002850999999992609</v>
+        <v>0.0002040999999906035</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.4956471759416</v>
       </c>
       <c r="F40" t="n">
-        <v>16.74705673451917</v>
+        <v>16.74705673450547</v>
       </c>
       <c r="G40" t="n">
-        <v>66.53983748939763</v>
+        <v>66.53983748939177</v>
       </c>
       <c r="H40" t="n">
-        <v>11.25072380086837</v>
+        <v>11.25072380085631</v>
       </c>
       <c r="I40" t="n">
         <v>34.96648716718858</v>
@@ -2523,16 +2523,16 @@
         <v>28.11848681131468</v>
       </c>
       <c r="K40" t="n">
-        <v>34.50507376457649</v>
+        <v>34.50507376457411</v>
       </c>
       <c r="L40" t="n">
-        <v>23.66880446760015</v>
+        <v>23.66880446757739</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3539074063830211</v>
+        <v>0.353907406383644</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8349041461725129</v>
+        <v>0.8349041461768691</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002943000000072971</v>
+        <v>0.0001862000000016906</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.297580216989</v>
       </c>
       <c r="F41" t="n">
-        <v>16.95874534839565</v>
+        <v>16.95874534839956</v>
       </c>
       <c r="G41" t="n">
-        <v>94.56616441797981</v>
+        <v>94.56616441798089</v>
       </c>
       <c r="H41" t="n">
-        <v>10.77858806158811</v>
+        <v>10.7785880615914</v>
       </c>
       <c r="I41" t="n">
         <v>46.69997733810174</v>
@@ -2575,16 +2575,16 @@
         <v>22.11787085750909</v>
       </c>
       <c r="K41" t="n">
-        <v>46.14799095817062</v>
+        <v>46.14799095817135</v>
       </c>
       <c r="L41" t="n">
-        <v>19.21397566441955</v>
+        <v>19.21397566442467</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3931633561617053</v>
+        <v>0.3931633561615129</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8107668297346051</v>
+        <v>0.810766829733355</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003063000000054217</v>
+        <v>0.0001862000000016906</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.3037738486056159</v>
       </c>
       <c r="F42" t="n">
-        <v>18.38040097348869</v>
+        <v>18.38040097348824</v>
       </c>
       <c r="G42" t="n">
-        <v>92.48041980177092</v>
+        <v>92.48041980177636</v>
       </c>
       <c r="H42" t="n">
-        <v>2.569219949684059</v>
+        <v>2.569219949683867</v>
       </c>
       <c r="I42" t="n">
         <v>16.11028815977839</v>
@@ -2627,16 +2627,16 @@
         <v>19.40305890800094</v>
       </c>
       <c r="K42" t="n">
-        <v>15.54559908354627</v>
+        <v>15.54559908354613</v>
       </c>
       <c r="L42" t="n">
-        <v>16.22386138363791</v>
+        <v>16.22386138363713</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2833318321209403</v>
+        <v>0.2833318321209615</v>
       </c>
       <c r="N42" t="n">
-        <v>1.638846978684766</v>
+        <v>1.638846978685135</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0002815999999938867</v>
+        <v>0.0003530999999838969</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.1353561615336547</v>
       </c>
       <c r="F43" t="n">
-        <v>18.33144173353102</v>
+        <v>18.33144173353079</v>
       </c>
       <c r="G43" t="n">
-        <v>57.43682916371483</v>
+        <v>57.43682916371561</v>
       </c>
       <c r="H43" t="n">
-        <v>2.127335122601093</v>
+        <v>2.12733512260099</v>
       </c>
       <c r="I43" t="n">
         <v>11.6234771877166</v>
@@ -2679,16 +2679,16 @@
         <v>20.81671725181581</v>
       </c>
       <c r="K43" t="n">
-        <v>11.14043436059986</v>
+        <v>11.14043436059978</v>
       </c>
       <c r="L43" t="n">
-        <v>17.41722109924656</v>
+        <v>17.41722109924622</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2796079912592663</v>
+        <v>0.2796079912592756</v>
       </c>
       <c r="N43" t="n">
-        <v>1.702906654203101</v>
+        <v>1.702906654203242</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002804999999881375</v>
+        <v>0.0005812999999932345</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.7516429234944</v>
       </c>
       <c r="F44" t="n">
-        <v>16.74102754445557</v>
+        <v>16.74102754445991</v>
       </c>
       <c r="G44" t="n">
-        <v>65.80088709666001</v>
+        <v>65.80088709666148</v>
       </c>
       <c r="H44" t="n">
-        <v>11.78181918383936</v>
+        <v>11.78181918384343</v>
       </c>
       <c r="I44" t="n">
         <v>35.49886759486641</v>
@@ -2731,16 +2731,16 @@
         <v>29.50819163776045</v>
       </c>
       <c r="K44" t="n">
-        <v>35.08801536300782</v>
+        <v>35.08801536300852</v>
       </c>
       <c r="L44" t="n">
-        <v>24.34389093607162</v>
+        <v>24.34389093607918</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3091350496718645</v>
+        <v>0.3091350496716815</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8905709441577987</v>
+        <v>0.8905709441564511</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002954999999928987</v>
+        <v>0.0003525000000195178</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.8713000373277</v>
       </c>
       <c r="F45" t="n">
-        <v>17.22315090757529</v>
+        <v>17.2231509075752</v>
       </c>
       <c r="G45" t="n">
-        <v>18.51609749689332</v>
+        <v>18.51609749689314</v>
       </c>
       <c r="H45" t="n">
-        <v>8.888161045210811</v>
+        <v>8.888161045210893</v>
       </c>
       <c r="I45" t="n">
         <v>10.84139862960262</v>
@@ -2783,16 +2783,16 @@
         <v>29.48104188665291</v>
       </c>
       <c r="K45" t="n">
-        <v>10.35934029358361</v>
+        <v>10.3593402935836</v>
       </c>
       <c r="L45" t="n">
-        <v>25.13005457241129</v>
+        <v>25.13005457241131</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2868200304867531</v>
+        <v>0.2868200304867532</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7658548766753943</v>
+        <v>0.7658548766753848</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003193999999950847</v>
+        <v>0.000236599999993814</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.3753073586279415</v>
       </c>
       <c r="F46" t="n">
-        <v>18.96886313928906</v>
+        <v>18.96886313928887</v>
       </c>
       <c r="G46" t="n">
-        <v>164.0601341187983</v>
+        <v>164.0601341187993</v>
       </c>
       <c r="H46" t="n">
-        <v>4.936640969852461</v>
+        <v>4.936640969852493</v>
       </c>
       <c r="I46" t="n">
         <v>15.96520424559259</v>
@@ -2835,16 +2835,16 @@
         <v>13.46641365931518</v>
       </c>
       <c r="K46" t="n">
-        <v>15.3323699055226</v>
+        <v>15.33236990552254</v>
       </c>
       <c r="L46" t="n">
-        <v>11.0491580215852</v>
+        <v>11.04915802158494</v>
       </c>
       <c r="M46" t="n">
-        <v>0.3034732706947224</v>
+        <v>0.303473270694734</v>
       </c>
       <c r="N46" t="n">
-        <v>1.200847873478514</v>
+        <v>1.200847873478602</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003028000000000475</v>
+        <v>0.0002335000000073251</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9868126135752</v>
       </c>
       <c r="F47" t="n">
-        <v>19.03817661471901</v>
+        <v>19.03817661471877</v>
       </c>
       <c r="G47" t="n">
-        <v>179.073010272982</v>
+        <v>179.0730102729823</v>
       </c>
       <c r="H47" t="n">
-        <v>9.266606523176449</v>
+        <v>9.266606523176382</v>
       </c>
       <c r="I47" t="n">
         <v>14.9370660770169</v>
@@ -2887,16 +2887,16 @@
         <v>6.082586648846124</v>
       </c>
       <c r="K47" t="n">
-        <v>14.24083413380337</v>
+        <v>14.24083413380314</v>
       </c>
       <c r="L47" t="n">
-        <v>5.4714781707495</v>
+        <v>5.471478170749331</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2679651058504216</v>
+        <v>0.2679651058504416</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4532260817785599</v>
+        <v>0.4532260817786885</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002936000000062222</v>
+        <v>0.0002548999999874013</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.7075620800647</v>
       </c>
       <c r="F48" t="n">
-        <v>18.56333110344513</v>
+        <v>18.56333110344547</v>
       </c>
       <c r="G48" t="n">
-        <v>140.2096836926928</v>
+        <v>140.209683692692</v>
       </c>
       <c r="H48" t="n">
-        <v>9.676868675276721</v>
+        <v>9.676868675276941</v>
       </c>
       <c r="I48" t="n">
         <v>50.84770593025824</v>
@@ -2939,16 +2939,16 @@
         <v>11.82955794607099</v>
       </c>
       <c r="K48" t="n">
-        <v>50.45554818322272</v>
+        <v>50.45554818322268</v>
       </c>
       <c r="L48" t="n">
-        <v>11.03224979156303</v>
+        <v>11.03224979156343</v>
       </c>
       <c r="M48" t="n">
-        <v>0.305646735972226</v>
+        <v>0.3056467359722148</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4539652978436144</v>
+        <v>0.4539652978435351</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.000218499999988353</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.4240047378830676</v>
       </c>
       <c r="F49" t="n">
-        <v>17.67350925695558</v>
+        <v>17.67350925695544</v>
       </c>
       <c r="G49" t="n">
-        <v>20.67417267769447</v>
+        <v>20.67417267769411</v>
       </c>
       <c r="H49" t="n">
-        <v>9.374670841075451</v>
+        <v>9.374670841075631</v>
       </c>
       <c r="I49" t="n">
         <v>12.18983427447809</v>
@@ -2991,16 +2991,16 @@
         <v>34.68944772507457</v>
       </c>
       <c r="K49" t="n">
-        <v>11.64674607471902</v>
+        <v>11.646746074719</v>
       </c>
       <c r="L49" t="n">
-        <v>26.11961016420107</v>
+        <v>26.11961016420115</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3076335048131681</v>
+        <v>0.3076335048131671</v>
       </c>
       <c r="N49" t="n">
-        <v>1.458664280875789</v>
+        <v>1.458664280875753</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002840000000077225</v>
+        <v>0.0001945999999861669</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.4968156599642271</v>
       </c>
       <c r="F50" t="n">
-        <v>19.32379395328692</v>
+        <v>19.32379395328686</v>
       </c>
       <c r="G50" t="n">
-        <v>358.8775431096009</v>
+        <v>358.8775431096008</v>
       </c>
       <c r="H50" t="n">
-        <v>6.732289187689041</v>
+        <v>6.732289187688937</v>
       </c>
       <c r="I50" t="n">
         <v>3.510331044355261</v>
@@ -3043,16 +3043,16 @@
         <v>33.86101386425069</v>
       </c>
       <c r="K50" t="n">
-        <v>2.725312441108491</v>
+        <v>2.725312441108478</v>
       </c>
       <c r="L50" t="n">
-        <v>24.81196499224876</v>
+        <v>24.81196499224857</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3240234195248669</v>
+        <v>0.3240234195248701</v>
       </c>
       <c r="N50" t="n">
-        <v>2.019803406127373</v>
+        <v>2.019803406127406</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002955000000071095</v>
+        <v>0.0002010000000041146</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.5215795391032959</v>
       </c>
       <c r="F51" t="n">
-        <v>17.75824180989578</v>
+        <v>17.75824180989621</v>
       </c>
       <c r="G51" t="n">
-        <v>67.51084075526397</v>
+        <v>67.51084075526639</v>
       </c>
       <c r="H51" t="n">
-        <v>3.496591493393539</v>
+        <v>3.496591493393593</v>
       </c>
       <c r="I51" t="n">
         <v>17.9141781265068</v>
@@ -3095,16 +3095,16 @@
         <v>22.67245653586901</v>
       </c>
       <c r="K51" t="n">
-        <v>17.27846177240749</v>
+        <v>17.27846177240762</v>
       </c>
       <c r="L51" t="n">
-        <v>17.53754020720334</v>
+        <v>17.53754020720366</v>
       </c>
       <c r="M51" t="n">
-        <v>0.283812799022921</v>
+        <v>0.2838127990229091</v>
       </c>
       <c r="N51" t="n">
-        <v>1.904305973805107</v>
+        <v>1.904305973805094</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003474000000096567</v>
+        <v>0.0002751000000102977</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.7801760543418236</v>
       </c>
       <c r="F52" t="n">
-        <v>17.19332852588063</v>
+        <v>17.19332852588074</v>
       </c>
       <c r="G52" t="n">
-        <v>112.2753414158536</v>
+        <v>112.275341415855</v>
       </c>
       <c r="H52" t="n">
-        <v>3.873243347353846</v>
+        <v>3.873243347353893</v>
       </c>
       <c r="I52" t="n">
         <v>24.7123806252271</v>
@@ -3147,16 +3147,16 @@
         <v>19.26468874930528</v>
       </c>
       <c r="K52" t="n">
-        <v>24.00236961260775</v>
+        <v>24.00236961260782</v>
       </c>
       <c r="L52" t="n">
-        <v>14.02643691685396</v>
+        <v>14.02643691685395</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3482773756073293</v>
+        <v>0.3482773756073267</v>
       </c>
       <c r="N52" t="n">
-        <v>2.024025749931843</v>
+        <v>2.024025749931837</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002904999999913116</v>
+        <v>0.0002084999999851789</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.1452515866743192</v>
       </c>
       <c r="F53" t="n">
-        <v>18.29831803313651</v>
+        <v>18.29831803313648</v>
       </c>
       <c r="G53" t="n">
-        <v>130.7346052021919</v>
+        <v>130.7346052021904</v>
       </c>
       <c r="H53" t="n">
-        <v>3.101842444298126</v>
+        <v>3.101842444298077</v>
       </c>
       <c r="I53" t="n">
         <v>17.51566640221833</v>
@@ -3199,16 +3199,16 @@
         <v>15.8948919808433</v>
       </c>
       <c r="K53" t="n">
-        <v>16.94257484235333</v>
+        <v>16.94257484235332</v>
       </c>
       <c r="L53" t="n">
-        <v>13.85425707218658</v>
+        <v>13.85425707218667</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2723481017219324</v>
+        <v>0.2723481017219321</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8921124015227667</v>
+        <v>0.8921124015227615</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002836999999971113</v>
+        <v>0.0001921000000209006</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.7402620796929</v>
       </c>
       <c r="F54" t="n">
-        <v>18.87887373757938</v>
+        <v>18.87887373757916</v>
       </c>
       <c r="G54" t="n">
-        <v>138.7007952819266</v>
+        <v>138.7007952819252</v>
       </c>
       <c r="H54" t="n">
-        <v>2.643578372412334</v>
+        <v>2.643578372412216</v>
       </c>
       <c r="I54" t="n">
         <v>13.13409212102936</v>
@@ -3251,16 +3251,16 @@
         <v>14.38207027932934</v>
       </c>
       <c r="K54" t="n">
-        <v>12.89932915790701</v>
+        <v>12.89932915790694</v>
       </c>
       <c r="L54" t="n">
-        <v>14.23837996495235</v>
+        <v>14.23837996495229</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2552352959932621</v>
+        <v>0.2552352959932668</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8172168906632145</v>
+        <v>0.8172168906633671</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002903999999972484</v>
+        <v>0.0002010999999981777</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.8970675665747</v>
       </c>
       <c r="F55" t="n">
-        <v>18.27928858847682</v>
+        <v>18.27928858847486</v>
       </c>
       <c r="G55" t="n">
-        <v>153.1945530307271</v>
+        <v>153.1945530307291</v>
       </c>
       <c r="H55" t="n">
-        <v>8.693102531948906</v>
+        <v>8.693102531947741</v>
       </c>
       <c r="I55" t="n">
         <v>43.10728306886178</v>
@@ -3303,16 +3303,16 @@
         <v>9.632097422497353</v>
       </c>
       <c r="K55" t="n">
-        <v>42.60411391533598</v>
+        <v>42.60411391533531</v>
       </c>
       <c r="L55" t="n">
-        <v>8.630050718306022</v>
+        <v>8.630050718304741</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3191901817392021</v>
+        <v>0.3191901817392924</v>
       </c>
       <c r="N55" t="n">
-        <v>0.5863943988403322</v>
+        <v>0.5863943988410719</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003056000000043468</v>
+        <v>0.0002197000000023763</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.9261053723064553</v>
       </c>
       <c r="F56" t="n">
-        <v>16.69199626404121</v>
+        <v>16.69199626404137</v>
       </c>
       <c r="G56" t="n">
-        <v>93.54471701542414</v>
+        <v>93.54471701542603</v>
       </c>
       <c r="H56" t="n">
-        <v>4.318258712675142</v>
+        <v>4.318258712675163</v>
       </c>
       <c r="I56" t="n">
         <v>26.41857436802691</v>
@@ -3355,16 +3355,16 @@
         <v>21.857439245682</v>
       </c>
       <c r="K56" t="n">
-        <v>25.67745658831202</v>
+        <v>25.67745658831209</v>
       </c>
       <c r="L56" t="n">
         <v>15.26003397069672</v>
       </c>
       <c r="M56" t="n">
-        <v>0.349559025570327</v>
+        <v>0.3495590255703235</v>
       </c>
       <c r="N56" t="n">
-        <v>2.169113035022717</v>
+        <v>2.169113035022736</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0002558999999848766</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.8118655573170027</v>
       </c>
       <c r="F57" t="n">
-        <v>18.33657861143673</v>
+        <v>18.33657861143652</v>
       </c>
       <c r="G57" t="n">
-        <v>18.02920448812324</v>
+        <v>18.02920448812298</v>
       </c>
       <c r="H57" t="n">
-        <v>7.147583482049744</v>
+        <v>7.147583482049672</v>
       </c>
       <c r="I57" t="n">
         <v>10.33697773787481</v>
@@ -3407,16 +3407,16 @@
         <v>34.79295383250428</v>
       </c>
       <c r="K57" t="n">
-        <v>9.709287222640112</v>
+        <v>9.709287222640061</v>
       </c>
       <c r="L57" t="n">
-        <v>24.22127230482052</v>
+        <v>24.22127230482022</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3500344434000105</v>
+        <v>0.3500344434000174</v>
       </c>
       <c r="N57" t="n">
-        <v>1.976171715520636</v>
+        <v>1.97617171552067</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002925000000004729</v>
+        <v>0.0002448000000185857</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.5188215877512897</v>
       </c>
       <c r="F58" t="n">
-        <v>19.47366742147908</v>
+        <v>19.4736674214788</v>
       </c>
       <c r="G58" t="n">
-        <v>182.1451210131896</v>
+        <v>182.1451210131901</v>
       </c>
       <c r="H58" t="n">
-        <v>8.675353992162879</v>
+        <v>8.675353992162906</v>
       </c>
       <c r="I58" t="n">
         <v>10.01126221134659</v>
@@ -3459,16 +3459,16 @@
         <v>9.131905031738382</v>
       </c>
       <c r="K58" t="n">
-        <v>8.436208165510179</v>
+        <v>8.436208165509859</v>
       </c>
       <c r="L58" t="n">
-        <v>6.5239676471889</v>
+        <v>6.52396764718858</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4199434016181918</v>
+        <v>0.4199434016182491</v>
       </c>
       <c r="N58" t="n">
-        <v>1.592425148488288</v>
+        <v>1.592425148488446</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.0001869000000169763</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.06552607867345203</v>
       </c>
       <c r="F59" t="n">
-        <v>17.83397022432115</v>
+        <v>17.83397022432091</v>
       </c>
       <c r="G59" t="n">
-        <v>12.86642178985981</v>
+        <v>12.86642178985948</v>
       </c>
       <c r="H59" t="n">
-        <v>4.59684006906689</v>
+        <v>4.596840069066721</v>
       </c>
       <c r="I59" t="n">
         <v>7.21865410269864</v>
@@ -3511,16 +3511,16 @@
         <v>24.23572292664682</v>
       </c>
       <c r="K59" t="n">
-        <v>6.6994528361499</v>
+        <v>6.699452836149823</v>
       </c>
       <c r="L59" t="n">
-        <v>20.73689890319241</v>
+        <v>20.73689890319198</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3106051499330529</v>
+        <v>0.310605149933063</v>
       </c>
       <c r="N59" t="n">
-        <v>0.9486486796049773</v>
+        <v>0.9486486796051032</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003011000000014974</v>
+        <v>0.0001847000000054777</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.3800930730872643</v>
       </c>
       <c r="F60" t="n">
-        <v>16.93356499626755</v>
+        <v>16.93356499626715</v>
       </c>
       <c r="G60" t="n">
-        <v>68.4119784599482</v>
+        <v>68.4119784599486</v>
       </c>
       <c r="H60" t="n">
-        <v>5.967259864862391</v>
+        <v>5.967259864862109</v>
       </c>
       <c r="I60" t="n">
         <v>25.72186802556637</v>
@@ -3563,16 +3563,16 @@
         <v>23.90445332822715</v>
       </c>
       <c r="K60" t="n">
-        <v>25.10152810593913</v>
+        <v>25.10152810593905</v>
       </c>
       <c r="L60" t="n">
-        <v>18.71937680304909</v>
+        <v>18.71937680304845</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2812448887037984</v>
+        <v>0.281244888703815</v>
       </c>
       <c r="N60" t="n">
-        <v>1.311007373898133</v>
+        <v>1.311007373898293</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002969000000092592</v>
+        <v>0.0001874999999813554</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.8346417606973641</v>
       </c>
       <c r="F61" t="n">
-        <v>18.8558648458135</v>
+        <v>18.85586484581378</v>
       </c>
       <c r="G61" t="n">
-        <v>180.3423486069931</v>
+        <v>180.3423486069925</v>
       </c>
       <c r="H61" t="n">
-        <v>7.300107071407579</v>
+        <v>7.300107071407528</v>
       </c>
       <c r="I61" t="n">
         <v>12.36048824931865</v>
@@ -3615,16 +3615,16 @@
         <v>11.95385309927802</v>
       </c>
       <c r="K61" t="n">
-        <v>10.55111997837031</v>
+        <v>10.55111997837058</v>
       </c>
       <c r="L61" t="n">
-        <v>7.606134751507647</v>
+        <v>7.606134751508008</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4767724849702412</v>
+        <v>0.4767724849701886</v>
       </c>
       <c r="N61" t="n">
-        <v>2.637693783014568</v>
+        <v>2.637693783014405</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002851999999933241</v>
+        <v>0.0002384000000006381</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.4608854966065385</v>
       </c>
       <c r="F62" t="n">
-        <v>18.16246155558142</v>
+        <v>18.16246155558139</v>
       </c>
       <c r="G62" t="n">
-        <v>74.00468446132358</v>
+        <v>74.00468446132258</v>
       </c>
       <c r="H62" t="n">
-        <v>2.984764511277519</v>
+        <v>2.984764511277539</v>
       </c>
       <c r="I62" t="n">
         <v>16.57573316800831</v>
@@ -3667,16 +3667,16 @@
         <v>21.9814878807647</v>
       </c>
       <c r="K62" t="n">
-        <v>16.06077959684768</v>
+        <v>16.06077959684766</v>
       </c>
       <c r="L62" t="n">
-        <v>17.20397771512934</v>
+        <v>17.20397771512938</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3361558937407709</v>
+        <v>0.3361558937407705</v>
       </c>
       <c r="N62" t="n">
-        <v>2.064043808938861</v>
+        <v>2.06404380893883</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003190999999986843</v>
+        <v>0.0001908000000128141</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.2157477757799077</v>
       </c>
       <c r="F63" t="n">
-        <v>18.59758146151497</v>
+        <v>18.59758146151514</v>
       </c>
       <c r="G63" t="n">
-        <v>156.286811980999</v>
+        <v>156.2868119809992</v>
       </c>
       <c r="H63" t="n">
-        <v>5.096920872637035</v>
+        <v>5.096920872637137</v>
       </c>
       <c r="I63" t="n">
         <v>20.09731597443985</v>
@@ -3719,16 +3719,16 @@
         <v>12.87701081010599</v>
       </c>
       <c r="K63" t="n">
-        <v>19.61780356191334</v>
+        <v>19.61780356191342</v>
       </c>
       <c r="L63" t="n">
-        <v>11.02091029470675</v>
+        <v>11.02091029470681</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2959456015524358</v>
+        <v>0.2959456015524289</v>
       </c>
       <c r="N63" t="n">
-        <v>0.5954588425731651</v>
+        <v>0.5954588425730922</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002961999999939735</v>
+        <v>0.0002150999999912528</v>
       </c>
     </row>
     <row r="64">
@@ -3759,10 +3759,10 @@
         <v>18.70020891309394</v>
       </c>
       <c r="G64" t="n">
-        <v>4.64794018307031</v>
+        <v>4.647940183070285</v>
       </c>
       <c r="H64" t="n">
-        <v>6.731814637841928</v>
+        <v>6.731814637841803</v>
       </c>
       <c r="I64" t="n">
         <v>4.695261347669589</v>
@@ -3771,16 +3771,16 @@
         <v>28.06116813307842</v>
       </c>
       <c r="K64" t="n">
-        <v>4.329056692082216</v>
+        <v>4.329056692082204</v>
       </c>
       <c r="L64" t="n">
-        <v>24.20451414803708</v>
+        <v>24.20451414803694</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2523270568324147</v>
+        <v>0.2523270568324165</v>
       </c>
       <c r="N64" t="n">
-        <v>0.9588045779345611</v>
+        <v>0.9588045779346055</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002817000000021608</v>
+        <v>0.000192199999986542</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>1.069489326759043</v>
       </c>
       <c r="F65" t="n">
-        <v>16.14005511352169</v>
+        <v>16.14005511352035</v>
       </c>
       <c r="G65" t="n">
-        <v>118.8745924413293</v>
+        <v>118.8745924413296</v>
       </c>
       <c r="H65" t="n">
-        <v>4.988762067333846</v>
+        <v>4.988762067333166</v>
       </c>
       <c r="I65" t="n">
         <v>33.18633892201698</v>
@@ -3823,16 +3823,16 @@
         <v>18.89625465573057</v>
       </c>
       <c r="K65" t="n">
-        <v>32.27668513860453</v>
+        <v>32.27668513860399</v>
       </c>
       <c r="L65" t="n">
-        <v>12.57278509846327</v>
+        <v>12.57278509846205</v>
       </c>
       <c r="M65" t="n">
-        <v>0.4117385943570557</v>
+        <v>0.4117385943571424</v>
       </c>
       <c r="N65" t="n">
-        <v>2.156033608108423</v>
+        <v>2.156033608108886</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003085000000027094</v>
+        <v>0.0001901999999915915</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.4498385303842</v>
       </c>
       <c r="F66" t="n">
-        <v>17.12777358282284</v>
+        <v>17.12777358282246</v>
       </c>
       <c r="G66" t="n">
-        <v>63.25472055847102</v>
+        <v>63.25472055847142</v>
       </c>
       <c r="H66" t="n">
-        <v>8.898042770451774</v>
+        <v>8.898042770451388</v>
       </c>
       <c r="I66" t="n">
         <v>29.08874271726011</v>
@@ -3875,16 +3875,16 @@
         <v>24.88481197061157</v>
       </c>
       <c r="K66" t="n">
-        <v>28.62280308852408</v>
+        <v>28.62280308852401</v>
       </c>
       <c r="L66" t="n">
-        <v>22.00500974681446</v>
+        <v>22.00500974681371</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3856995493514268</v>
+        <v>0.3856995493514504</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6652255942894796</v>
+        <v>0.6652255942896325</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.00029750000000206</v>
+        <v>0.0002345999999988635</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.4168324115663374</v>
       </c>
       <c r="F67" t="n">
-        <v>18.76140535981601</v>
+        <v>18.76140535981588</v>
       </c>
       <c r="G67" t="n">
-        <v>80.35387277077461</v>
+        <v>80.35387277078394</v>
       </c>
       <c r="H67" t="n">
-        <v>1.264161475955368</v>
+        <v>1.264161475955262</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3927,16 +3927,16 @@
         <v>20.85499145199956</v>
       </c>
       <c r="K67" t="n">
-        <v>9.697970441169074</v>
+        <v>9.69797044116901</v>
       </c>
       <c r="L67" t="n">
-        <v>16.63648234895708</v>
+        <v>16.63648234895668</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2937943592313267</v>
+        <v>0.2937943592313369</v>
       </c>
       <c r="N67" t="n">
-        <v>3.084486337329511</v>
+        <v>3.084486337329869</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.2921928179678</v>
       </c>
       <c r="F68" t="n">
-        <v>16.69040823404564</v>
+        <v>16.69040823404551</v>
       </c>
       <c r="G68" t="n">
-        <v>18.89594770610124</v>
+        <v>18.89594770610132</v>
       </c>
       <c r="H68" t="n">
-        <v>6.427841618990779</v>
+        <v>6.427841618990538</v>
       </c>
       <c r="I68" t="n">
         <v>9.544606449506214</v>
@@ -3979,16 +3979,16 @@
         <v>22.58510882584286</v>
       </c>
       <c r="K68" t="n">
-        <v>9.20261366424157</v>
+        <v>9.20261366424152</v>
       </c>
       <c r="L68" t="n">
-        <v>21.64913982321756</v>
+        <v>21.64913982321715</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3310614989859886</v>
+        <v>0.3310614989859979</v>
       </c>
       <c r="N68" t="n">
-        <v>1.366521245781243</v>
+        <v>1.366521245781155</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003482000000047947</v>
+        <v>0.0002001999999947657</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.4357389238899</v>
       </c>
       <c r="F69" t="n">
-        <v>16.90526518815483</v>
+        <v>16.9052651881514</v>
       </c>
       <c r="G69" t="n">
-        <v>94.99291068586993</v>
+        <v>94.99291068586891</v>
       </c>
       <c r="H69" t="n">
-        <v>11.24230812815484</v>
+        <v>11.24230812815187</v>
       </c>
       <c r="I69" t="n">
         <v>48.35751430066835</v>
@@ -4031,16 +4031,16 @@
         <v>22.71174981430071</v>
       </c>
       <c r="K69" t="n">
-        <v>47.76227925512154</v>
+        <v>47.76227925512094</v>
       </c>
       <c r="L69" t="n">
-        <v>19.50876033293022</v>
+        <v>19.5087603329257</v>
       </c>
       <c r="M69" t="n">
-        <v>0.3654354595237903</v>
+        <v>0.3654354595239462</v>
       </c>
       <c r="N69" t="n">
-        <v>0.8531452907719287</v>
+        <v>0.8531452907729915</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002947999999918238</v>
+        <v>0.0001833999999973912</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.4722381821858267</v>
       </c>
       <c r="F70" t="n">
-        <v>18.57944951093886</v>
+        <v>18.579449510939</v>
       </c>
       <c r="G70" t="n">
-        <v>106.9025789021672</v>
+        <v>106.9025789021494</v>
       </c>
       <c r="H70" t="n">
-        <v>1.48782473980796</v>
+        <v>1.487824739807954</v>
       </c>
       <c r="I70" t="n">
         <v>11.81939003856421</v>
@@ -4083,16 +4083,16 @@
         <v>20.72083320136014</v>
       </c>
       <c r="K70" t="n">
-        <v>11.10707639025761</v>
+        <v>11.10707639025769</v>
       </c>
       <c r="L70" t="n">
-        <v>15.73815567652125</v>
+        <v>15.73815567652194</v>
       </c>
       <c r="M70" t="n">
-        <v>0.3153402124203425</v>
+        <v>0.3153402124203268</v>
       </c>
       <c r="N70" t="n">
-        <v>3.527655810840478</v>
+        <v>3.527655810839962</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.000182600000016464</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.5422464507259</v>
       </c>
       <c r="F71" t="n">
-        <v>16.3464289560548</v>
+        <v>16.34642895605324</v>
       </c>
       <c r="G71" t="n">
-        <v>49.54235685301044</v>
+        <v>49.54235685300964</v>
       </c>
       <c r="H71" t="n">
-        <v>10.88129905342653</v>
+        <v>10.88129905342513</v>
       </c>
       <c r="I71" t="n">
         <v>26.8338317910883</v>
@@ -4135,16 +4135,16 @@
         <v>29.68943618653344</v>
       </c>
       <c r="K71" t="n">
-        <v>26.30426669609368</v>
+        <v>26.30426669609338</v>
       </c>
       <c r="L71" t="n">
-        <v>24.7669399888948</v>
+        <v>24.76693998889193</v>
       </c>
       <c r="M71" t="n">
-        <v>0.347255448823045</v>
+        <v>0.347255448823116</v>
       </c>
       <c r="N71" t="n">
-        <v>0.8627835235295518</v>
+        <v>0.8627835235300867</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002953000000047723</v>
+        <v>0.0002360000000010132</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.574501295849</v>
       </c>
       <c r="F72" t="n">
-        <v>19.51009107326102</v>
+        <v>19.51009107326202</v>
       </c>
       <c r="G72" t="n">
-        <v>165.723465932341</v>
+        <v>165.7234659323405</v>
       </c>
       <c r="H72" t="n">
-        <v>13.0260850510338</v>
+        <v>13.02608505103458</v>
       </c>
       <c r="I72" t="n">
         <v>71.23042357909056</v>
@@ -4187,16 +4187,16 @@
         <v>5.091810049838018</v>
       </c>
       <c r="K72" t="n">
-        <v>70.32872457577477</v>
+        <v>70.32872457577494</v>
       </c>
       <c r="L72" t="n">
-        <v>5.182747047348811</v>
+        <v>5.182747047349204</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3326184256373202</v>
+        <v>0.3326184256372736</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3679971037772362</v>
+        <v>0.3679971037771898</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.0002379000000019005</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.2153015748648967</v>
       </c>
       <c r="F73" t="n">
-        <v>18.09987906142211</v>
+        <v>18.09987906142236</v>
       </c>
       <c r="G73" t="n">
-        <v>36.87992379471844</v>
+        <v>36.87992379471923</v>
       </c>
       <c r="H73" t="n">
-        <v>5.041931649989909</v>
+        <v>5.041931649989912</v>
       </c>
       <c r="I73" t="n">
         <v>13.94596386491522</v>
@@ -4239,16 +4239,16 @@
         <v>25.79680087522651</v>
       </c>
       <c r="K73" t="n">
-        <v>13.4743633957023</v>
+        <v>13.47436339570235</v>
       </c>
       <c r="L73" t="n">
-        <v>20.89824723357408</v>
+        <v>20.89824723357429</v>
       </c>
       <c r="M73" t="n">
-        <v>0.2833354411648469</v>
+        <v>0.2833354411648412</v>
       </c>
       <c r="N73" t="n">
-        <v>1.371271424705189</v>
+        <v>1.37127142470518</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003707999999988942</v>
+        <v>0.0001892999999881795</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.8407272504671</v>
       </c>
       <c r="F74" t="n">
-        <v>17.24636904905591</v>
+        <v>17.24636904905559</v>
       </c>
       <c r="G74" t="n">
-        <v>17.34345463282737</v>
+        <v>17.34345463282751</v>
       </c>
       <c r="H74" t="n">
-        <v>9.742370261022639</v>
+        <v>9.742370261021785</v>
       </c>
       <c r="I74" t="n">
         <v>10.53944732398951</v>
@@ -4291,16 +4291,16 @@
         <v>30.60511931178456</v>
       </c>
       <c r="K74" t="n">
-        <v>10.12965603390247</v>
+        <v>10.12965603390238</v>
       </c>
       <c r="L74" t="n">
-        <v>26.19762107846136</v>
+        <v>26.19762107846002</v>
       </c>
       <c r="M74" t="n">
-        <v>0.2983898505231176</v>
+        <v>0.2983898505231412</v>
       </c>
       <c r="N74" t="n">
-        <v>0.7169159053987896</v>
+        <v>0.7169159053990708</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002901999999949112</v>
+        <v>0.0001908000000128141</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.711593474345</v>
       </c>
       <c r="F75" t="n">
-        <v>18.48938631372224</v>
+        <v>18.48938631372648</v>
       </c>
       <c r="G75" t="n">
-        <v>113.8084974441843</v>
+        <v>113.8084974441833</v>
       </c>
       <c r="H75" t="n">
-        <v>8.65862854886737</v>
+        <v>8.65862854887015</v>
       </c>
       <c r="I75" t="n">
         <v>42.46365114585801</v>
@@ -4343,16 +4343,16 @@
         <v>16.89259938730791</v>
       </c>
       <c r="K75" t="n">
-        <v>42.18435624424573</v>
+        <v>42.1843562442466</v>
       </c>
       <c r="L75" t="n">
-        <v>15.76058123429904</v>
+        <v>15.76058123430341</v>
       </c>
       <c r="M75" t="n">
-        <v>0.2692672071264424</v>
+        <v>0.269267207126308</v>
       </c>
       <c r="N75" t="n">
-        <v>0.441017093111619</v>
+        <v>0.4410170931102664</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003090999999955102</v>
+        <v>0.0001898000000153388</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.6958272530962</v>
       </c>
       <c r="F76" t="n">
-        <v>17.0303040857554</v>
+        <v>17.03030408575471</v>
       </c>
       <c r="G76" t="n">
-        <v>34.35963192643998</v>
+        <v>34.3596319264397</v>
       </c>
       <c r="H76" t="n">
-        <v>10.67665206606453</v>
+        <v>10.67665206606386</v>
       </c>
       <c r="I76" t="n">
         <v>18.81757901229481</v>
@@ -4395,16 +4395,16 @@
         <v>31.03383242832522</v>
       </c>
       <c r="K76" t="n">
-        <v>18.39551759513717</v>
+        <v>18.39551759513704</v>
       </c>
       <c r="L76" t="n">
-        <v>26.33588364574285</v>
+        <v>26.33588364574145</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2824943773202894</v>
+        <v>0.2824943773203173</v>
       </c>
       <c r="N76" t="n">
-        <v>0.7587130884510322</v>
+        <v>0.7587130884512849</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002870999999942114</v>
+        <v>0.0002361000000234981</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.3547510669880397</v>
       </c>
       <c r="F77" t="n">
-        <v>18.4445508113909</v>
+        <v>18.44455081139144</v>
       </c>
       <c r="G77" t="n">
-        <v>127.4990177927519</v>
+        <v>127.499017792751</v>
       </c>
       <c r="H77" t="n">
-        <v>3.33267543078508</v>
+        <v>3.332675430785246</v>
       </c>
       <c r="I77" t="n">
         <v>18.89077154030081</v>
@@ -4447,16 +4447,16 @@
         <v>17.33986823530514</v>
       </c>
       <c r="K77" t="n">
-        <v>18.40815394099725</v>
+        <v>18.40815394099742</v>
       </c>
       <c r="L77" t="n">
-        <v>14.11560428742201</v>
+        <v>14.11560428742252</v>
       </c>
       <c r="M77" t="n">
-        <v>0.2944193009765626</v>
+        <v>0.2944193009765406</v>
       </c>
       <c r="N77" t="n">
-        <v>1.36038337953125</v>
+        <v>1.360383379531033</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002783000000050606</v>
+        <v>0.0002082999999970525</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.5298493446405</v>
       </c>
       <c r="F78" t="n">
-        <v>16.77066278721703</v>
+        <v>16.77066278721849</v>
       </c>
       <c r="G78" t="n">
-        <v>53.08508872113037</v>
+        <v>53.08508872113046</v>
       </c>
       <c r="H78" t="n">
-        <v>11.08494587733132</v>
+        <v>11.08494587733281</v>
       </c>
       <c r="I78" t="n">
         <v>28.16915530266995</v>
@@ -4499,16 +4499,16 @@
         <v>29.4964254447366</v>
       </c>
       <c r="K78" t="n">
-        <v>27.78643653520119</v>
+        <v>27.78643653520141</v>
       </c>
       <c r="L78" t="n">
-        <v>25.02935570096562</v>
+        <v>25.02935570096852</v>
       </c>
       <c r="M78" t="n">
-        <v>0.3190890340195087</v>
+        <v>0.3190890340194371</v>
       </c>
       <c r="N78" t="n">
-        <v>0.7593653242585351</v>
+        <v>0.7593653242580223</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.001238099999994802</v>
+        <v>0.0002469000000075994</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.8877775739622</v>
       </c>
       <c r="F79" t="n">
-        <v>18.8725653984649</v>
+        <v>18.8725653984684</v>
       </c>
       <c r="G79" t="n">
-        <v>165.680640131295</v>
+        <v>165.6806401312921</v>
       </c>
       <c r="H79" t="n">
-        <v>9.949977212243615</v>
+        <v>9.949977212245795</v>
       </c>
       <c r="I79" t="n">
         <v>41.64356557784242</v>
@@ -4551,16 +4551,16 @@
         <v>6.622093328573639</v>
       </c>
       <c r="K79" t="n">
-        <v>41.08406596744477</v>
+        <v>41.08406596744647</v>
       </c>
       <c r="L79" t="n">
-        <v>6.218462756467172</v>
+        <v>6.218462756468814</v>
       </c>
       <c r="M79" t="n">
-        <v>0.281731796677483</v>
+        <v>0.2817317966773111</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4241043064827843</v>
+        <v>0.4241043064813642</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003167999999931226</v>
+        <v>0.0002133000000128504</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9389769313877</v>
       </c>
       <c r="F80" t="n">
-        <v>18.16165471606777</v>
+        <v>18.16165471606798</v>
       </c>
       <c r="G80" t="n">
-        <v>7.732874387529741</v>
+        <v>7.732874387529945</v>
       </c>
       <c r="H80" t="n">
-        <v>8.195225763041039</v>
+        <v>8.195225763040943</v>
       </c>
       <c r="I80" t="n">
         <v>5.948030209996284</v>
@@ -4603,16 +4603,16 @@
         <v>30.80205203138767</v>
       </c>
       <c r="K80" t="n">
-        <v>5.587974007576743</v>
+        <v>5.587974007576769</v>
       </c>
       <c r="L80" t="n">
-        <v>25.41087761297942</v>
+        <v>25.41087761297951</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2957554379199029</v>
+        <v>0.2957554379198995</v>
       </c>
       <c r="N80" t="n">
-        <v>1.071269483832433</v>
+        <v>1.071269483832437</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.000290799999987712</v>
+        <v>0.0001855999999804681</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>1.658179410385036</v>
       </c>
       <c r="F81" t="n">
-        <v>14.64555258416175</v>
+        <v>14.64555258416106</v>
       </c>
       <c r="G81" t="n">
-        <v>115.0661266457962</v>
+        <v>115.0661266457955</v>
       </c>
       <c r="H81" t="n">
-        <v>4.237658369657685</v>
+        <v>4.237658369657342</v>
       </c>
       <c r="I81" t="n">
         <v>33.54355347503301</v>
@@ -4655,16 +4655,16 @@
         <v>20.83100353070742</v>
       </c>
       <c r="K81" t="n">
-        <v>32.14131881639566</v>
+        <v>32.14131881639533</v>
       </c>
       <c r="L81" t="n">
-        <v>11.6548918125941</v>
+        <v>11.65489181259352</v>
       </c>
       <c r="M81" t="n">
-        <v>0.6565766886284627</v>
+        <v>0.6565766886285379</v>
       </c>
       <c r="N81" t="n">
-        <v>2.978901935876069</v>
+        <v>2.978901935876282</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002837000000113221</v>
+        <v>0.0002369000000044252</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.0500735319259</v>
       </c>
       <c r="F82" t="n">
-        <v>17.53389479710208</v>
+        <v>17.53389479710313</v>
       </c>
       <c r="G82" t="n">
-        <v>89.10656035060333</v>
+        <v>89.10656035060363</v>
       </c>
       <c r="H82" t="n">
-        <v>10.45027658512277</v>
+        <v>10.45027658512361</v>
       </c>
       <c r="I82" t="n">
         <v>42.00785586126269</v>
@@ -4707,16 +4707,16 @@
         <v>22.12910312982312</v>
       </c>
       <c r="K82" t="n">
-        <v>41.60572640101735</v>
+        <v>41.60572640101756</v>
       </c>
       <c r="L82" t="n">
-        <v>20.2086673892418</v>
+        <v>20.20866738924322</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4007802705690409</v>
+        <v>0.40078027056899</v>
       </c>
       <c r="N82" t="n">
-        <v>0.5729675854733229</v>
+        <v>0.5729675854729742</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.67995017110934</v>
       </c>
       <c r="F83" t="n">
-        <v>17.6841294851621</v>
+        <v>17.68412948516509</v>
       </c>
       <c r="G83" t="n">
-        <v>79.02910569336785</v>
+        <v>79.02910569337152</v>
       </c>
       <c r="H83" t="n">
-        <v>4.386040263314485</v>
+        <v>4.386040263315643</v>
       </c>
       <c r="I83" t="n">
         <v>22.66003708688305</v>
@@ -4759,16 +4759,16 @@
         <v>22.88308841551866</v>
       </c>
       <c r="K83" t="n">
-        <v>22.16964268183843</v>
+        <v>22.16964268183926</v>
       </c>
       <c r="L83" t="n">
-        <v>17.35091402119163</v>
+        <v>17.3509140211949</v>
       </c>
       <c r="M83" t="n">
-        <v>0.3216581721054618</v>
+        <v>0.321658172105348</v>
       </c>
       <c r="N83" t="n">
-        <v>1.855352615217356</v>
+        <v>1.855352615216589</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.000290899999995986</v>
+        <v>0.0002020000000015898</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.579674798622</v>
       </c>
       <c r="F84" t="n">
-        <v>16.83471849249839</v>
+        <v>16.83471849249862</v>
       </c>
       <c r="G84" t="n">
-        <v>45.67851842817601</v>
+        <v>45.67851842817652</v>
       </c>
       <c r="H84" t="n">
-        <v>9.496436693203023</v>
+        <v>9.496436693203066</v>
       </c>
       <c r="I84" t="n">
         <v>23.0138177326087</v>
@@ -4811,16 +4811,16 @@
         <v>27.91456839119444</v>
       </c>
       <c r="K84" t="n">
-        <v>22.52775074905789</v>
+        <v>22.52775074905794</v>
       </c>
       <c r="L84" t="n">
-        <v>24.012179723966</v>
+        <v>24.01217972396622</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3442882854669786</v>
+        <v>0.3442882854669731</v>
       </c>
       <c r="N84" t="n">
-        <v>0.7261935887569981</v>
+        <v>0.7261935887569484</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002835000000089849</v>
+        <v>0.0001878000000203883</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.5753435569815</v>
       </c>
       <c r="F85" t="n">
-        <v>16.74398429489759</v>
+        <v>16.74398429489714</v>
       </c>
       <c r="G85" t="n">
-        <v>42.87536969974093</v>
+        <v>42.87536969973998</v>
       </c>
       <c r="H85" t="n">
-        <v>9.825551611980707</v>
+        <v>9.825551611980618</v>
       </c>
       <c r="I85" t="n">
         <v>22.19829023105142</v>
@@ -4863,16 +4863,16 @@
         <v>28.81480572929693</v>
       </c>
       <c r="K85" t="n">
-        <v>21.71822861745632</v>
+        <v>21.71822861745621</v>
       </c>
       <c r="L85" t="n">
-        <v>24.50744043844417</v>
+        <v>24.50744043844372</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3215535408328585</v>
+        <v>0.3215535408328689</v>
       </c>
       <c r="N85" t="n">
-        <v>0.7618262469691228</v>
+        <v>0.7618262469692205</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0004576000000042768</v>
+        <v>0.0003697999999872081</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.06580610098779141</v>
       </c>
       <c r="F86" t="n">
-        <v>17.91453737117264</v>
+        <v>17.91453737117254</v>
       </c>
       <c r="G86" t="n">
-        <v>5.582512553634731</v>
+        <v>5.582512553634693</v>
       </c>
       <c r="H86" t="n">
-        <v>6.193047428952896</v>
+        <v>6.193047428953308</v>
       </c>
       <c r="I86" t="n">
         <v>5.354793513653481</v>
@@ -4915,16 +4915,16 @@
         <v>26.33679661486171</v>
       </c>
       <c r="K86" t="n">
-        <v>4.820702583557583</v>
+        <v>4.820702583557608</v>
       </c>
       <c r="L86" t="n">
-        <v>22.7751383718151</v>
+        <v>22.77513837181549</v>
       </c>
       <c r="M86" t="n">
-        <v>0.3206756391101304</v>
+        <v>0.320675639110125</v>
       </c>
       <c r="N86" t="n">
-        <v>0.8463520384587199</v>
+        <v>0.8463520384585581</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0002119000000107008</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9115746394606</v>
       </c>
       <c r="F87" t="n">
-        <v>17.7678676381676</v>
+        <v>17.76786763816945</v>
       </c>
       <c r="G87" t="n">
-        <v>111.1110818564568</v>
+        <v>111.1110818564557</v>
       </c>
       <c r="H87" t="n">
-        <v>7.768642133702567</v>
+        <v>7.768642133703749</v>
       </c>
       <c r="I87" t="n">
         <v>40.31703926566036</v>
@@ -4967,16 +4967,16 @@
         <v>17.50678391245108</v>
       </c>
       <c r="K87" t="n">
-        <v>39.83873758853121</v>
+        <v>39.83873758853159</v>
       </c>
       <c r="L87" t="n">
-        <v>15.35947054174907</v>
+        <v>15.3594705417511</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2970871843495461</v>
+        <v>0.2970871843494769</v>
       </c>
       <c r="N87" t="n">
-        <v>0.705407732607964</v>
+        <v>0.705407732607381</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002865000000014106</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.2981428594836462</v>
       </c>
       <c r="F88" t="n">
-        <v>18.31563689392434</v>
+        <v>18.3156368939239</v>
       </c>
       <c r="G88" t="n">
-        <v>48.16511918353163</v>
+        <v>48.16511918353317</v>
       </c>
       <c r="H88" t="n">
-        <v>2.923375079937417</v>
+        <v>2.923375079937124</v>
       </c>
       <c r="I88" t="n">
         <v>12.63355933516389</v>
@@ -5019,16 +5019,16 @@
         <v>23.239492303837</v>
       </c>
       <c r="K88" t="n">
-        <v>12.13737600757009</v>
+        <v>12.13737600756996</v>
       </c>
       <c r="L88" t="n">
-        <v>18.4513025015794</v>
+        <v>18.45130250157863</v>
       </c>
       <c r="M88" t="n">
-        <v>0.2964843718646653</v>
+        <v>0.2964843718646848</v>
       </c>
       <c r="N88" t="n">
-        <v>1.927424825661141</v>
+        <v>1.927424825661404</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002888000000069724</v>
+        <v>0.0001860000000135642</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.8138122395735</v>
       </c>
       <c r="F89" t="n">
-        <v>16.77191608108843</v>
+        <v>16.7719160811029</v>
       </c>
       <c r="G89" t="n">
-        <v>117.6297142603763</v>
+        <v>117.6297142603764</v>
       </c>
       <c r="H89" t="n">
-        <v>11.62699395563113</v>
+        <v>11.62699395564428</v>
       </c>
       <c r="I89" t="n">
         <v>60.8050478197775</v>
@@ -5071,16 +5071,16 @@
         <v>18.86895112245551</v>
       </c>
       <c r="K89" t="n">
-        <v>60.30746635896857</v>
+        <v>60.30746635897119</v>
       </c>
       <c r="L89" t="n">
-        <v>15.51435448099707</v>
+        <v>15.51435448101269</v>
       </c>
       <c r="M89" t="n">
-        <v>0.3212533304092476</v>
+        <v>0.3212533304086628</v>
       </c>
       <c r="N89" t="n">
-        <v>0.922783877430204</v>
+        <v>0.9227838774258941</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003235000000074706</v>
+        <v>0.0001829999999927168</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9465578479241</v>
       </c>
       <c r="F90" t="n">
-        <v>18.11999411246252</v>
+        <v>18.11999411246292</v>
       </c>
       <c r="G90" t="n">
-        <v>116.854988347531</v>
+        <v>116.8549883475301</v>
       </c>
       <c r="H90" t="n">
-        <v>7.928254702704977</v>
+        <v>7.928254702705242</v>
       </c>
       <c r="I90" t="n">
         <v>41.12816029319166</v>
@@ -5123,16 +5123,16 @@
         <v>16.60650249154164</v>
       </c>
       <c r="K90" t="n">
-        <v>40.70834851933873</v>
+        <v>40.70834851933879</v>
       </c>
       <c r="L90" t="n">
-        <v>14.78270215807206</v>
+        <v>14.7827021580726</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2877925546734634</v>
+        <v>0.2877925546734479</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6138917709344432</v>
+        <v>0.6138917709342799</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002961999999939735</v>
+        <v>0.0003059000000007472</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.8468650132735551</v>
       </c>
       <c r="F91" t="n">
-        <v>17.14470564352146</v>
+        <v>17.14470564352142</v>
       </c>
       <c r="G91" t="n">
-        <v>113.9000306204309</v>
+        <v>113.9000306204344</v>
       </c>
       <c r="H91" t="n">
-        <v>4.074286810219959</v>
+        <v>4.074286810219945</v>
       </c>
       <c r="I91" t="n">
         <v>25.93067114680046</v>
@@ -5175,16 +5175,16 @@
         <v>19.33745493689766</v>
       </c>
       <c r="K91" t="n">
-        <v>25.16344625228929</v>
+        <v>25.16344625228933</v>
       </c>
       <c r="L91" t="n">
-        <v>13.8611126892863</v>
+        <v>13.86111268928597</v>
       </c>
       <c r="M91" t="n">
-        <v>0.356856435775722</v>
+        <v>0.356856435775731</v>
       </c>
       <c r="N91" t="n">
-        <v>2.08498232638806</v>
+        <v>2.084982326388167</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002903999999972484</v>
+        <v>0.000194800000002715</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.1122433340996691</v>
       </c>
       <c r="F92" t="n">
-        <v>17.97113436191183</v>
+        <v>17.97113436191188</v>
       </c>
       <c r="G92" t="n">
-        <v>27.99408561957837</v>
+        <v>27.99408561957765</v>
       </c>
       <c r="H92" t="n">
-        <v>3.252783016714759</v>
+        <v>3.252783016714917</v>
       </c>
       <c r="I92" t="n">
         <v>9.760627286571122</v>
@@ -5227,16 +5227,16 @@
         <v>22.92041397631485</v>
       </c>
       <c r="K92" t="n">
-        <v>9.178182869596233</v>
+        <v>9.178182869596245</v>
       </c>
       <c r="L92" t="n">
-        <v>19.04520523386647</v>
+        <v>19.04520523386671</v>
       </c>
       <c r="M92" t="n">
-        <v>0.3061372355158415</v>
+        <v>0.3061372355158362</v>
       </c>
       <c r="N92" t="n">
-        <v>1.276286957036861</v>
+        <v>1.276286957036745</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003202999999984968</v>
+        <v>0.0001862999999957538</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.3030605088673829</v>
       </c>
       <c r="F93" t="n">
-        <v>17.93103154472945</v>
+        <v>17.93103154472886</v>
       </c>
       <c r="G93" t="n">
-        <v>41.64751181299642</v>
+        <v>41.64751181299557</v>
       </c>
       <c r="H93" t="n">
-        <v>4.248670437646959</v>
+        <v>4.248670437646742</v>
       </c>
       <c r="I93" t="n">
         <v>14.17967145141647</v>
@@ -5279,16 +5279,16 @@
         <v>24.87142509426831</v>
       </c>
       <c r="K93" t="n">
-        <v>13.67581487995431</v>
+        <v>13.67581487995415</v>
       </c>
       <c r="L93" t="n">
-        <v>19.68219701683428</v>
+        <v>19.68219701683351</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2789415232987896</v>
+        <v>0.2789415232988091</v>
       </c>
       <c r="N93" t="n">
-        <v>1.581688096545587</v>
+        <v>1.581688096545731</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002889999999950987</v>
+        <v>0.0001863999999898169</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.8848503791089</v>
       </c>
       <c r="F94" t="n">
-        <v>18.47294488956146</v>
+        <v>18.47294488956366</v>
       </c>
       <c r="G94" t="n">
-        <v>160.0625598535445</v>
+        <v>160.0625598535431</v>
       </c>
       <c r="H94" t="n">
-        <v>11.32319601901353</v>
+        <v>11.3231960190152</v>
       </c>
       <c r="I94" t="n">
         <v>62.23454606395273</v>
@@ -5331,16 +5331,16 @@
         <v>7.253282679324334</v>
       </c>
       <c r="K94" t="n">
-        <v>61.86939046900382</v>
+        <v>61.86939046900449</v>
       </c>
       <c r="L94" t="n">
-        <v>6.539131683873906</v>
+        <v>6.539131683874992</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2533485307158851</v>
+        <v>0.2533485307158077</v>
       </c>
       <c r="N94" t="n">
-        <v>0.4991226892520624</v>
+        <v>0.4991226892512715</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000278600000001461</v>
+        <v>0.0001825999999880423</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.1849009598281</v>
       </c>
       <c r="F95" t="n">
-        <v>18.01749925943575</v>
+        <v>18.01749925943097</v>
       </c>
       <c r="G95" t="n">
-        <v>104.224071303476</v>
+        <v>104.2240713034757</v>
       </c>
       <c r="H95" t="n">
-        <v>10.07183010384354</v>
+        <v>10.07183010383993</v>
       </c>
       <c r="I95" t="n">
         <v>45.89953068680607</v>
@@ -5383,16 +5383,16 @@
         <v>18.82125777249706</v>
       </c>
       <c r="K95" t="n">
-        <v>45.4578304533414</v>
+        <v>45.45783045334051</v>
       </c>
       <c r="L95" t="n">
-        <v>17.72020986309232</v>
+        <v>17.72020986308681</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3427296861300982</v>
+        <v>0.3427296861302921</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5187736172139408</v>
+        <v>0.518773617215483</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0006044000000002825</v>
+        <v>0.0003557000000000698</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.6282733922433</v>
       </c>
       <c r="F96" t="n">
-        <v>18.23634091807132</v>
+        <v>18.23634091806795</v>
       </c>
       <c r="G96" t="n">
-        <v>127.3510209405108</v>
+        <v>127.3510209405119</v>
       </c>
       <c r="H96" t="n">
-        <v>9.202678673982515</v>
+        <v>9.2026786739802</v>
       </c>
       <c r="I96" t="n">
         <v>48.29065171913467</v>
@@ -5435,16 +5435,16 @@
         <v>14.32873211053184</v>
       </c>
       <c r="K96" t="n">
-        <v>47.78169587286192</v>
+        <v>47.78169587286116</v>
       </c>
       <c r="L96" t="n">
-        <v>13.27423040543731</v>
+        <v>13.27423040543433</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3037702056034071</v>
+        <v>0.3037702056035285</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5667975079955121</v>
+        <v>0.5667975079965848</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002996000000052845</v>
+        <v>0.0002187000000049011</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.3321444497762412</v>
       </c>
       <c r="F97" t="n">
-        <v>18.36329155594087</v>
+        <v>18.3632915559406</v>
       </c>
       <c r="G97" t="n">
-        <v>51.87538355514862</v>
+        <v>51.87538355514626</v>
       </c>
       <c r="H97" t="n">
-        <v>3.073397328207989</v>
+        <v>3.073397328208035</v>
       </c>
       <c r="I97" t="n">
         <v>13.57118462144919</v>
@@ -5487,16 +5487,16 @@
         <v>22.79599817688023</v>
       </c>
       <c r="K97" t="n">
-        <v>13.05172471277864</v>
+        <v>13.05172471277858</v>
       </c>
       <c r="L97" t="n">
-        <v>18.5014997765434</v>
+        <v>18.50149977654327</v>
       </c>
       <c r="M97" t="n">
-        <v>0.2781142924937196</v>
+        <v>0.2781142924937256</v>
       </c>
       <c r="N97" t="n">
-        <v>1.758179158539927</v>
+        <v>1.758179158539869</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002796999999929994</v>
+        <v>0.0001991999999972904</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.965076112617</v>
       </c>
       <c r="F98" t="n">
-        <v>16.74113188823422</v>
+        <v>16.74113188823299</v>
       </c>
       <c r="G98" t="n">
-        <v>37.44879523715858</v>
+        <v>37.44879523715805</v>
       </c>
       <c r="H98" t="n">
-        <v>10.90364086419046</v>
+        <v>10.90364086418927</v>
       </c>
       <c r="I98" t="n">
         <v>20.86576132904595</v>
@@ -5539,16 +5539,16 @@
         <v>32.55998288646593</v>
       </c>
       <c r="K98" t="n">
-        <v>20.40029945157112</v>
+        <v>20.40029945157089</v>
       </c>
       <c r="L98" t="n">
-        <v>26.15270157940525</v>
+        <v>26.15270157940274</v>
       </c>
       <c r="M98" t="n">
-        <v>0.2992706883514209</v>
+        <v>0.2992706883514742</v>
       </c>
       <c r="N98" t="n">
-        <v>1.015100529185892</v>
+        <v>1.015100529186305</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0001858999999910793</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.875593875646003</v>
       </c>
       <c r="F99" t="n">
-        <v>13.74836457652101</v>
+        <v>13.74836457651865</v>
       </c>
       <c r="G99" t="n">
-        <v>156.8532531458974</v>
+        <v>156.8532531458991</v>
       </c>
       <c r="H99" t="n">
-        <v>8.957500630125493</v>
+        <v>8.957500630123405</v>
       </c>
       <c r="I99" t="n">
         <v>78.06587627245798</v>
@@ -5591,16 +5591,16 @@
         <v>9.999091878929827</v>
       </c>
       <c r="K99" t="n">
-        <v>77.46208272589583</v>
+        <v>77.46208272589479</v>
       </c>
       <c r="L99" t="n">
-        <v>5.742796810748956</v>
+        <v>5.742796810747622</v>
       </c>
       <c r="M99" t="n">
-        <v>0.3646103411451297</v>
+        <v>0.3646103411453213</v>
       </c>
       <c r="N99" t="n">
-        <v>1.986145906417843</v>
+        <v>1.986145906418729</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.000304100000008134</v>
+        <v>0.0001855000000148266</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.7631414593671</v>
       </c>
       <c r="F100" t="n">
-        <v>17.85107087223426</v>
+        <v>17.85107087222747</v>
       </c>
       <c r="G100" t="n">
-        <v>131.1355546934231</v>
+        <v>131.1355546934263</v>
       </c>
       <c r="H100" t="n">
-        <v>8.465959673316753</v>
+        <v>8.465959673312325</v>
       </c>
       <c r="I100" t="n">
         <v>46.1844939913889</v>
@@ -5643,16 +5643,16 @@
         <v>13.77788699865662</v>
       </c>
       <c r="K100" t="n">
-        <v>45.65126139482658</v>
+        <v>45.65126139482478</v>
       </c>
       <c r="L100" t="n">
-        <v>12.23339074732785</v>
+        <v>12.23339074732213</v>
       </c>
       <c r="M100" t="n">
-        <v>0.3277416212225224</v>
+        <v>0.3277416212227944</v>
       </c>
       <c r="N100" t="n">
-        <v>0.6786515247390486</v>
+        <v>0.6786515247412352</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002843000000041229</v>
+        <v>0.0004097999999999047</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.07117942135097972</v>
       </c>
       <c r="F101" t="n">
-        <v>17.78426203157379</v>
+        <v>17.78426203157251</v>
       </c>
       <c r="G101" t="n">
-        <v>123.2524103237205</v>
+        <v>123.2524103237226</v>
       </c>
       <c r="H101" t="n">
-        <v>7.485874150662053</v>
+        <v>7.485874150661283</v>
       </c>
       <c r="I101" t="n">
         <v>40.8027694413413</v>
@@ -5695,16 +5695,16 @@
         <v>15.73131543785253</v>
       </c>
       <c r="K101" t="n">
-        <v>40.36079822610338</v>
+        <v>40.36079822610317</v>
       </c>
       <c r="L101" t="n">
-        <v>13.44156503322156</v>
+        <v>13.44156503322013</v>
       </c>
       <c r="M101" t="n">
-        <v>0.2796427759311557</v>
+        <v>0.2796427759312055</v>
       </c>
       <c r="N101" t="n">
-        <v>0.7961424124673007</v>
+        <v>0.7961424124677816</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002822000000008984</v>
+        <v>0.0002329999999801657</v>
       </c>
     </row>
   </sheetData>
